--- a/steel_yield.xlsx
+++ b/steel_yield.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emmanuelverkinderen-my.sharepoint.com/personal/emmanuel_aecforward_ai/Documents/2021 - Research/2021_06_15 ColBot/ColumnScraping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emmanuelverkinderen-my.sharepoint.com/personal/emmanuel_aecforward_ai/Documents/2021 - Research/2021_09_20 Colbot/column_scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{6FF36413-BD1D-4260-863A-17CA1D9215E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BE21E27-DA4F-4D23-B1D3-936906C7C8B4}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{6FF36413-BD1D-4260-863A-17CA1D9215E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF793A7-06CC-438D-A48C-C363689E19BF}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="660" windowWidth="32340" windowHeight="18495" xr2:uid="{BE732FE0-8D2B-40C6-8146-2CCC3684C01A}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="24284" windowHeight="15750" activeTab="1" xr2:uid="{BE732FE0-8D2B-40C6-8146-2CCC3684C01A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Ref" sheetId="4" r:id="rId2"/>
+    <sheet name="ultimate" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>S355Histar - EAF</t>
   </si>
@@ -65,6 +66,21 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>Hot rolled structural steel</t>
+  </si>
+  <si>
+    <t>Histar</t>
+  </si>
+  <si>
+    <t>Table:</t>
+  </si>
+  <si>
+    <t>Column header: Thickness &lt;=</t>
+  </si>
+  <si>
+    <t>e.g 100: Thickness &lt;=100</t>
   </si>
 </sst>
 </file>
@@ -392,6 +408,138 @@
         <a:xfrm>
           <a:off x="1316681" y="10572750"/>
           <a:ext cx="10039715" cy="7945887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>516139</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>48743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7E6154-DAB8-464B-8073-2D1C9C06D3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="19907250"/>
+          <a:ext cx="12822439" cy="8011643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>484421</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311532</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>96349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05F36B3-0B6E-4778-A56C-37999C7960D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1779821" y="28794075"/>
+          <a:ext cx="8894911" cy="4963624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>173607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>639690</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D96947-E8A0-4CAC-90B6-569A430C4C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771649" y="33834957"/>
+          <a:ext cx="9231241" cy="6441506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,17 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FECF9D-D79A-433B-8215-FCADAD4F4A76}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -736,7 +884,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -760,7 +908,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -784,7 +932,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -808,7 +956,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -832,7 +980,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -850,41 +998,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C34221-182D-4D25-A4AF-CF3E959B0B62}">
-  <dimension ref="C5:C103"/>
+  <dimension ref="B2:D159"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D159" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE54C52-F781-421D-9CEA-EAB09497DCEC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4">
+        <v>100</v>
+      </c>
+      <c r="C1" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>470</v>
+      </c>
+      <c r="C2" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>470</v>
+      </c>
+      <c r="C3" s="10">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>550</v>
+      </c>
+      <c r="C4" s="10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>540</v>
+      </c>
+      <c r="C5" s="13">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>